--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -54,6 +54,54 @@
   </si>
   <si>
     <t>Valencia</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Athletic</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Atletico</t>
+  </si>
+  <si>
+    <t>Granada</t>
   </si>
   <si>
     <t>Gols Marcados</t>
@@ -417,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +616,470 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -575,7 +1087,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -595,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -630,6 +1142,142 @@
       </c>
       <c r="E3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,6 +1080,1166 @@
         <v>3</v>
       </c>
     </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>8</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1087,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1280,6 +2440,346 @@
         <v>28</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11578,6 +11578,238 @@
         <v>5</v>
       </c>
     </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+      <c r="F384">
+        <v>3</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+      <c r="H384">
+        <v>4</v>
+      </c>
+      <c r="I384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>21</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>3</v>
+      </c>
+      <c r="H385">
+        <v>6</v>
+      </c>
+      <c r="I385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>16</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386">
+        <v>10</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>19</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>1</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>1</v>
+      </c>
+      <c r="I387">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>17</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>2</v>
+      </c>
+      <c r="G388">
+        <v>1</v>
+      </c>
+      <c r="H388">
+        <v>5</v>
+      </c>
+      <c r="I388">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>1</v>
+      </c>
+      <c r="G389">
+        <v>2</v>
+      </c>
+      <c r="H389">
+        <v>5</v>
+      </c>
+      <c r="I389">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>22</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>1</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+      <c r="H390">
+        <v>13</v>
+      </c>
+      <c r="I390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>28</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391">
+        <v>1</v>
+      </c>
+      <c r="H391">
+        <v>1</v>
+      </c>
+      <c r="I391">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11585,7 +11817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14855,6 +15087,74 @@
         <v>26</v>
       </c>
     </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>15</v>
+      </c>
+      <c r="E193" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11810,6 +11810,122 @@
         <v>13</v>
       </c>
     </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+      <c r="H392">
+        <v>4</v>
+      </c>
+      <c r="I392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>14</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+      <c r="H393">
+        <v>3</v>
+      </c>
+      <c r="I393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>25</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
+      </c>
+      <c r="G394">
+        <v>4</v>
+      </c>
+      <c r="H394">
+        <v>3</v>
+      </c>
+      <c r="I394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>12</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="F395">
+        <v>4</v>
+      </c>
+      <c r="G395">
+        <v>1</v>
+      </c>
+      <c r="H395">
+        <v>1</v>
+      </c>
+      <c r="I395">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11817,7 +11933,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15155,6 +15271,40 @@
         <v>28</v>
       </c>
     </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11926,6 +11926,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>26</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+      <c r="F396">
+        <v>1</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+      <c r="H396">
+        <v>4</v>
+      </c>
+      <c r="I396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>25</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>1</v>
+      </c>
+      <c r="H397">
+        <v>4</v>
+      </c>
+      <c r="I397">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11933,7 +11991,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15305,6 +15363,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11984,6 +11984,238 @@
         <v>4</v>
       </c>
     </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>10</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>2</v>
+      </c>
+      <c r="H398">
+        <v>12</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>15</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>2</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+      <c r="H399">
+        <v>0</v>
+      </c>
+      <c r="I399">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>21</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400">
+        <v>1</v>
+      </c>
+      <c r="G400">
+        <v>1</v>
+      </c>
+      <c r="H400">
+        <v>4</v>
+      </c>
+      <c r="I400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>16</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+      <c r="C401">
+        <v>1</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+      <c r="G401">
+        <v>1</v>
+      </c>
+      <c r="H401">
+        <v>6</v>
+      </c>
+      <c r="I401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>12</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+      <c r="H402">
+        <v>4</v>
+      </c>
+      <c r="I402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>17</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>1</v>
+      </c>
+      <c r="H403">
+        <v>2</v>
+      </c>
+      <c r="I403">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>19</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>1</v>
+      </c>
+      <c r="H404">
+        <v>6</v>
+      </c>
+      <c r="I404">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>13</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+      <c r="H405">
+        <v>4</v>
+      </c>
+      <c r="I405">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11991,7 +12223,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15380,6 +15612,74 @@
         <v>25</v>
       </c>
     </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+      <c r="C200">
+        <v>12</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>10</v>
+      </c>
+      <c r="D201" t="s">
+        <v>21</v>
+      </c>
+      <c r="E201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12216,6 +12216,296 @@
         <v>6</v>
       </c>
     </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>20</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>1</v>
+      </c>
+      <c r="F406">
+        <v>3</v>
+      </c>
+      <c r="G406">
+        <v>2</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+      <c r="E407">
+        <v>1</v>
+      </c>
+      <c r="F407">
+        <v>2</v>
+      </c>
+      <c r="G407">
+        <v>3</v>
+      </c>
+      <c r="H407">
+        <v>4</v>
+      </c>
+      <c r="I407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>1</v>
+      </c>
+      <c r="F408">
+        <v>3</v>
+      </c>
+      <c r="G408">
+        <v>2</v>
+      </c>
+      <c r="H408">
+        <v>6</v>
+      </c>
+      <c r="I408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>9</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>1</v>
+      </c>
+      <c r="D409">
+        <v>1</v>
+      </c>
+      <c r="E409">
+        <v>1</v>
+      </c>
+      <c r="F409">
+        <v>2</v>
+      </c>
+      <c r="G409">
+        <v>3</v>
+      </c>
+      <c r="H409">
+        <v>3</v>
+      </c>
+      <c r="I409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>22</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+      <c r="E410">
+        <v>1</v>
+      </c>
+      <c r="F410">
+        <v>2</v>
+      </c>
+      <c r="G410">
+        <v>4</v>
+      </c>
+      <c r="H410">
+        <v>3</v>
+      </c>
+      <c r="I410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>24</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+      <c r="C411">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>1</v>
+      </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
+      <c r="F411">
+        <v>4</v>
+      </c>
+      <c r="G411">
+        <v>2</v>
+      </c>
+      <c r="H411">
+        <v>4</v>
+      </c>
+      <c r="I411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>14</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>1</v>
+      </c>
+      <c r="F412">
+        <v>5</v>
+      </c>
+      <c r="G412">
+        <v>1</v>
+      </c>
+      <c r="H412">
+        <v>4</v>
+      </c>
+      <c r="I412">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+      <c r="C413">
+        <v>1</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413">
+        <v>1</v>
+      </c>
+      <c r="F413">
+        <v>1</v>
+      </c>
+      <c r="G413">
+        <v>5</v>
+      </c>
+      <c r="H413">
+        <v>5</v>
+      </c>
+      <c r="I413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>28</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>1</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>1</v>
+      </c>
+      <c r="H414">
+        <v>6</v>
+      </c>
+      <c r="I414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>27</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>1</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+      <c r="H415">
+        <v>2</v>
+      </c>
+      <c r="I415">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12223,7 +12513,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15680,6 +15970,91 @@
         <v>13</v>
       </c>
     </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+      <c r="D205" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>22</v>
+      </c>
+      <c r="E206" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>9</v>
+      </c>
+      <c r="D207" t="s">
+        <v>14</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12506,6 +12506,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>9</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
+        <v>1</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>3</v>
+      </c>
+      <c r="H416">
+        <v>11</v>
+      </c>
+      <c r="I416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>26</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>1</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+      <c r="F417">
+        <v>3</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+      <c r="H417">
+        <v>3</v>
+      </c>
+      <c r="I417">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12513,7 +12571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16055,6 +16113,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>3</v>
+      </c>
+      <c r="C209">
+        <v>14</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12564,6 +12564,238 @@
         <v>11</v>
       </c>
     </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>13</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+      <c r="H418">
+        <v>2</v>
+      </c>
+      <c r="I418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>10</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+      <c r="F419">
+        <v>0</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>2</v>
+      </c>
+      <c r="I419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>15</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+      <c r="E420">
+        <v>1</v>
+      </c>
+      <c r="F420">
+        <v>1</v>
+      </c>
+      <c r="G420">
+        <v>2</v>
+      </c>
+      <c r="H420">
+        <v>1</v>
+      </c>
+      <c r="I420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>18</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>1</v>
+      </c>
+      <c r="F421">
+        <v>2</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>6</v>
+      </c>
+      <c r="I421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>24</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+      <c r="E422">
+        <v>1</v>
+      </c>
+      <c r="F422">
+        <v>3</v>
+      </c>
+      <c r="G422">
+        <v>5</v>
+      </c>
+      <c r="H422">
+        <v>10</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>21</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>1</v>
+      </c>
+      <c r="F423">
+        <v>5</v>
+      </c>
+      <c r="G423">
+        <v>3</v>
+      </c>
+      <c r="H423">
+        <v>0</v>
+      </c>
+      <c r="I423">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>16</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>1</v>
+      </c>
+      <c r="H424">
+        <v>5</v>
+      </c>
+      <c r="I424">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>22</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>1</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+      <c r="H425">
+        <v>4</v>
+      </c>
+      <c r="I425">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12571,7 +12803,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16130,6 +16362,74 @@
         <v>26</v>
       </c>
     </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>8</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>9</v>
+      </c>
+      <c r="D213" t="s">
+        <v>16</v>
+      </c>
+      <c r="E213" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12796,6 +12796,470 @@
         <v>5</v>
       </c>
     </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>19</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>1</v>
+      </c>
+      <c r="H426">
+        <v>5</v>
+      </c>
+      <c r="I426">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>14</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>1</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>1</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+      <c r="H427">
+        <v>7</v>
+      </c>
+      <c r="I427">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>25</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+      <c r="H428">
+        <v>6</v>
+      </c>
+      <c r="I428">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>17</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>0</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+      <c r="H429">
+        <v>8</v>
+      </c>
+      <c r="I429">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>11</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+      <c r="E430">
+        <v>1</v>
+      </c>
+      <c r="F430">
+        <v>1</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>2</v>
+      </c>
+      <c r="I430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="s">
+        <v>20</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+      <c r="E431">
+        <v>1</v>
+      </c>
+      <c r="F431">
+        <v>1</v>
+      </c>
+      <c r="G431">
+        <v>1</v>
+      </c>
+      <c r="H431">
+        <v>4</v>
+      </c>
+      <c r="I431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" t="s">
+        <v>27</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>3</v>
+      </c>
+      <c r="I432">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433" t="s">
+        <v>12</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>2</v>
+      </c>
+      <c r="H433">
+        <v>6</v>
+      </c>
+      <c r="I433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" t="s">
+        <v>23</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>2</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+      <c r="H434">
+        <v>4</v>
+      </c>
+      <c r="I434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435" t="s">
+        <v>28</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+      <c r="F435">
+        <v>0</v>
+      </c>
+      <c r="G435">
+        <v>2</v>
+      </c>
+      <c r="H435">
+        <v>3</v>
+      </c>
+      <c r="I435">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436" t="s">
+        <v>24</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>6</v>
+      </c>
+      <c r="I436">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" t="s">
+        <v>20</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+      <c r="F437">
+        <v>0</v>
+      </c>
+      <c r="G437">
+        <v>1</v>
+      </c>
+      <c r="H437">
+        <v>6</v>
+      </c>
+      <c r="I437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" t="s">
+        <v>27</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+      <c r="E438">
+        <v>1</v>
+      </c>
+      <c r="F438">
+        <v>2</v>
+      </c>
+      <c r="G438">
+        <v>1</v>
+      </c>
+      <c r="H438">
+        <v>5</v>
+      </c>
+      <c r="I438">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+      <c r="E439">
+        <v>1</v>
+      </c>
+      <c r="F439">
+        <v>1</v>
+      </c>
+      <c r="G439">
+        <v>2</v>
+      </c>
+      <c r="H439">
+        <v>6</v>
+      </c>
+      <c r="I439">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" t="s">
+        <v>23</v>
+      </c>
+      <c r="B440">
+        <v>1</v>
+      </c>
+      <c r="C440">
+        <v>0</v>
+      </c>
+      <c r="D440">
+        <v>1</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+      <c r="F440">
+        <v>0</v>
+      </c>
+      <c r="G440">
+        <v>2</v>
+      </c>
+      <c r="H440">
+        <v>2</v>
+      </c>
+      <c r="I440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+      <c r="F441">
+        <v>2</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
+        <v>6</v>
+      </c>
+      <c r="I441">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12803,7 +13267,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16430,6 +16894,142 @@
         <v>22</v>
       </c>
     </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>12</v>
+      </c>
+      <c r="D214" t="s">
+        <v>19</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>14</v>
+      </c>
+      <c r="D215" t="s">
+        <v>25</v>
+      </c>
+      <c r="E215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>9</v>
+      </c>
+      <c r="D217" t="s">
+        <v>27</v>
+      </c>
+      <c r="E217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>23</v>
+      </c>
+      <c r="E218" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>12</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>27</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
+      </c>
+      <c r="E221" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13260,6 +13260,64 @@
         <v>2</v>
       </c>
     </row>
+    <row r="442" spans="1:9">
+      <c r="A442" t="s">
+        <v>17</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+      <c r="F442">
+        <v>4</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+      <c r="H442">
+        <v>6</v>
+      </c>
+      <c r="I442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" t="s">
+        <v>16</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>4</v>
+      </c>
+      <c r="H443">
+        <v>2</v>
+      </c>
+      <c r="I443">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13267,7 +13325,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17030,6 +17088,23 @@
         <v>18</v>
       </c>
     </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I443"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13318,6 +13318,238 @@
         <v>6</v>
       </c>
     </row>
+    <row r="444" spans="1:9">
+      <c r="A444" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
+      <c r="F444">
+        <v>2</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>0</v>
+      </c>
+      <c r="I444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" t="s">
+        <v>9</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+      <c r="E445">
+        <v>1</v>
+      </c>
+      <c r="F445">
+        <v>1</v>
+      </c>
+      <c r="G445">
+        <v>2</v>
+      </c>
+      <c r="H445">
+        <v>6</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" t="s">
+        <v>28</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+      <c r="E446">
+        <v>1</v>
+      </c>
+      <c r="F446">
+        <v>1</v>
+      </c>
+      <c r="G446">
+        <v>1</v>
+      </c>
+      <c r="H446">
+        <v>2</v>
+      </c>
+      <c r="I446">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" t="s">
+        <v>15</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447">
+        <v>1</v>
+      </c>
+      <c r="F447">
+        <v>1</v>
+      </c>
+      <c r="G447">
+        <v>1</v>
+      </c>
+      <c r="H447">
+        <v>9</v>
+      </c>
+      <c r="I447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" t="s">
+        <v>26</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448">
+        <v>1</v>
+      </c>
+      <c r="F448">
+        <v>1</v>
+      </c>
+      <c r="G448">
+        <v>3</v>
+      </c>
+      <c r="H448">
+        <v>13</v>
+      </c>
+      <c r="I448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" t="s">
+        <v>24</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+      <c r="F449">
+        <v>3</v>
+      </c>
+      <c r="G449">
+        <v>1</v>
+      </c>
+      <c r="H449">
+        <v>5</v>
+      </c>
+      <c r="I449">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" t="s">
+        <v>14</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+      <c r="F450">
+        <v>0</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450">
+        <v>3</v>
+      </c>
+      <c r="I450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" t="s">
+        <v>13</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+      <c r="F451">
+        <v>0</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
+        <v>4</v>
+      </c>
+      <c r="I451">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13325,7 +13557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:E226"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17105,6 +17337,74 @@
         <v>16</v>
       </c>
     </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>1</v>
+      </c>
+      <c r="B223">
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225">
+        <v>4</v>
+      </c>
+      <c r="C225">
+        <v>18</v>
+      </c>
+      <c r="D225" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I461"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13550,6 +13550,296 @@
         <v>3</v>
       </c>
     </row>
+    <row r="452" spans="1:9">
+      <c r="A452" t="s">
+        <v>21</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+      <c r="F452">
+        <v>0</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>13</v>
+      </c>
+      <c r="I452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" t="s">
+        <v>25</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+      <c r="H453">
+        <v>2</v>
+      </c>
+      <c r="I453">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" t="s">
+        <v>20</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+      <c r="F454">
+        <v>0</v>
+      </c>
+      <c r="G454">
+        <v>3</v>
+      </c>
+      <c r="H454">
+        <v>9</v>
+      </c>
+      <c r="I454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" t="s">
+        <v>19</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+      <c r="F455">
+        <v>3</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+      <c r="H455">
+        <v>1</v>
+      </c>
+      <c r="I455">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456">
+        <v>1</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>1</v>
+      </c>
+      <c r="F456">
+        <v>1</v>
+      </c>
+      <c r="G456">
+        <v>1</v>
+      </c>
+      <c r="H456">
+        <v>3</v>
+      </c>
+      <c r="I456">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" t="s">
+        <v>23</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+      <c r="E457">
+        <v>1</v>
+      </c>
+      <c r="F457">
+        <v>1</v>
+      </c>
+      <c r="G457">
+        <v>1</v>
+      </c>
+      <c r="H457">
+        <v>5</v>
+      </c>
+      <c r="I457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" t="s">
+        <v>18</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+      <c r="F458">
+        <v>1</v>
+      </c>
+      <c r="G458">
+        <v>1</v>
+      </c>
+      <c r="H458">
+        <v>2</v>
+      </c>
+      <c r="I458">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="s">
+        <v>27</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="E459">
+        <v>1</v>
+      </c>
+      <c r="F459">
+        <v>1</v>
+      </c>
+      <c r="G459">
+        <v>1</v>
+      </c>
+      <c r="H459">
+        <v>8</v>
+      </c>
+      <c r="I459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="s">
+        <v>10</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+      <c r="E460">
+        <v>1</v>
+      </c>
+      <c r="F460">
+        <v>1</v>
+      </c>
+      <c r="G460">
+        <v>2</v>
+      </c>
+      <c r="H460">
+        <v>6</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="s">
+        <v>11</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+      <c r="E461">
+        <v>1</v>
+      </c>
+      <c r="F461">
+        <v>2</v>
+      </c>
+      <c r="G461">
+        <v>1</v>
+      </c>
+      <c r="H461">
+        <v>0</v>
+      </c>
+      <c r="I461">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13557,7 +13847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E226"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17405,6 +17695,91 @@
         <v>13</v>
       </c>
     </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>10</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>22</v>
+      </c>
+      <c r="E229" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>10</v>
+      </c>
+      <c r="D230" t="s">
+        <v>18</v>
+      </c>
+      <c r="E230" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <v>6</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I461"/>
+  <dimension ref="A1:I463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13840,6 +13840,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="s">
+        <v>25</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+      <c r="F462">
+        <v>0</v>
+      </c>
+      <c r="G462">
+        <v>2</v>
+      </c>
+      <c r="H462">
+        <v>5</v>
+      </c>
+      <c r="I462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="s">
+        <v>22</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>2</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+      <c r="H463">
+        <v>3</v>
+      </c>
+      <c r="I463">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13847,7 +13905,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17780,6 +17838,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I463"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13898,6 +13898,238 @@
         <v>5</v>
       </c>
     </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="s">
+        <v>26</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+      <c r="E464">
+        <v>1</v>
+      </c>
+      <c r="F464">
+        <v>1</v>
+      </c>
+      <c r="G464">
+        <v>1</v>
+      </c>
+      <c r="H464">
+        <v>10</v>
+      </c>
+      <c r="I464">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="s">
+        <v>21</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+      <c r="E465">
+        <v>1</v>
+      </c>
+      <c r="F465">
+        <v>1</v>
+      </c>
+      <c r="G465">
+        <v>1</v>
+      </c>
+      <c r="H465">
+        <v>9</v>
+      </c>
+      <c r="I465">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="s">
+        <v>13</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+      <c r="D466">
+        <v>1</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>1</v>
+      </c>
+      <c r="H466">
+        <v>7</v>
+      </c>
+      <c r="I466">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="s">
+        <v>20</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>1</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+      <c r="H467">
+        <v>4</v>
+      </c>
+      <c r="I467">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468">
+        <v>1</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>4</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+      <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="s">
+        <v>14</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469">
+        <v>4</v>
+      </c>
+      <c r="H469">
+        <v>2</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="s">
+        <v>15</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+      <c r="F470">
+        <v>2</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+      <c r="H470">
+        <v>5</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="s">
+        <v>12</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>2</v>
+      </c>
+      <c r="H471">
+        <v>0</v>
+      </c>
+      <c r="I471">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13905,7 +14137,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E232"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17855,6 +18087,74 @@
         <v>22</v>
       </c>
     </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>1</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>19</v>
+      </c>
+      <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>4</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>18</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+      <c r="D236" t="s">
+        <v>15</v>
+      </c>
+      <c r="E236" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I471"/>
+  <dimension ref="A1:I479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14130,6 +14130,238 @@
         <v>5</v>
       </c>
     </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>23</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+      <c r="E472">
+        <v>1</v>
+      </c>
+      <c r="F472">
+        <v>3</v>
+      </c>
+      <c r="G472">
+        <v>2</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
+      </c>
+      <c r="I472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="s">
+        <v>19</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+      <c r="F473">
+        <v>2</v>
+      </c>
+      <c r="G473">
+        <v>3</v>
+      </c>
+      <c r="H473">
+        <v>4</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>16</v>
+      </c>
+      <c r="B474">
+        <v>1</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>1</v>
+      </c>
+      <c r="E474">
+        <v>1</v>
+      </c>
+      <c r="F474">
+        <v>2</v>
+      </c>
+      <c r="G474">
+        <v>1</v>
+      </c>
+      <c r="H474">
+        <v>5</v>
+      </c>
+      <c r="I474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475">
+        <v>1</v>
+      </c>
+      <c r="G475">
+        <v>2</v>
+      </c>
+      <c r="H475">
+        <v>1</v>
+      </c>
+      <c r="I475">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>11</v>
+      </c>
+      <c r="B476">
+        <v>1</v>
+      </c>
+      <c r="C476">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>1</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>2</v>
+      </c>
+      <c r="I476">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>27</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+      <c r="F477">
+        <v>0</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>7</v>
+      </c>
+      <c r="I477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>24</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478">
+        <v>3</v>
+      </c>
+      <c r="G478">
+        <v>3</v>
+      </c>
+      <c r="H478">
+        <v>6</v>
+      </c>
+      <c r="I478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>28</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
+      <c r="F479">
+        <v>3</v>
+      </c>
+      <c r="G479">
+        <v>3</v>
+      </c>
+      <c r="H479">
+        <v>2</v>
+      </c>
+      <c r="I479">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14137,7 +14369,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18155,6 +18387,74 @@
         <v>12</v>
       </c>
     </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>1</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="C237">
+        <v>4</v>
+      </c>
+      <c r="D237" t="s">
+        <v>23</v>
+      </c>
+      <c r="E237" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>3</v>
+      </c>
+      <c r="C238">
+        <v>6</v>
+      </c>
+      <c r="D238" t="s">
+        <v>16</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>9</v>
+      </c>
+      <c r="D239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E239" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240" t="s">
+        <v>24</v>
+      </c>
+      <c r="E240" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I479"/>
+  <dimension ref="A1:I481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14362,6 +14362,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>9</v>
+      </c>
+      <c r="B480">
+        <v>1</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+      <c r="H480">
+        <v>4</v>
+      </c>
+      <c r="I480">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>17</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+      <c r="H481">
+        <v>10</v>
+      </c>
+      <c r="I481">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14369,7 +14427,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E240"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18455,6 +18513,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>14</v>
+      </c>
+      <c r="D241" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I481"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14420,6 +14420,64 @@
         <v>4</v>
       </c>
     </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>21</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+      <c r="G482">
+        <v>1</v>
+      </c>
+      <c r="H482">
+        <v>8</v>
+      </c>
+      <c r="I482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>23</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483">
+        <v>1</v>
+      </c>
+      <c r="G483">
+        <v>1</v>
+      </c>
+      <c r="H483">
+        <v>3</v>
+      </c>
+      <c r="I483">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14427,7 +14485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18530,6 +18588,23 @@
         <v>17</v>
       </c>
     </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+      <c r="C242">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s">
+        <v>21</v>
+      </c>
+      <c r="E242" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14478,6 +14478,238 @@
         <v>8</v>
       </c>
     </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>27</v>
+      </c>
+      <c r="B484">
+        <v>1</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484">
+        <v>5</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+      <c r="H484">
+        <v>3</v>
+      </c>
+      <c r="I484">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>15</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+      <c r="G485">
+        <v>5</v>
+      </c>
+      <c r="H485">
+        <v>5</v>
+      </c>
+      <c r="I485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>20</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>1</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>2</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+      <c r="H486">
+        <v>5</v>
+      </c>
+      <c r="I486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>25</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+      <c r="G487">
+        <v>2</v>
+      </c>
+      <c r="H487">
+        <v>4</v>
+      </c>
+      <c r="I487">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>19</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488">
+        <v>1</v>
+      </c>
+      <c r="E488">
+        <v>1</v>
+      </c>
+      <c r="F488">
+        <v>1</v>
+      </c>
+      <c r="G488">
+        <v>2</v>
+      </c>
+      <c r="H488">
+        <v>2</v>
+      </c>
+      <c r="I488">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>24</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+      <c r="C489">
+        <v>1</v>
+      </c>
+      <c r="D489">
+        <v>1</v>
+      </c>
+      <c r="E489">
+        <v>1</v>
+      </c>
+      <c r="F489">
+        <v>2</v>
+      </c>
+      <c r="G489">
+        <v>1</v>
+      </c>
+      <c r="H489">
+        <v>5</v>
+      </c>
+      <c r="I489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>12</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+      <c r="F490">
+        <v>0</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+      <c r="H490">
+        <v>7</v>
+      </c>
+      <c r="I490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>2</v>
+      </c>
+      <c r="I491">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14485,7 +14717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18605,6 +18837,74 @@
         <v>23</v>
       </c>
     </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>5</v>
+      </c>
+      <c r="C243">
+        <v>8</v>
+      </c>
+      <c r="D243" t="s">
+        <v>27</v>
+      </c>
+      <c r="E243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244">
+        <v>9</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
+        <v>7</v>
+      </c>
+      <c r="D245" t="s">
+        <v>19</v>
+      </c>
+      <c r="E245" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>9</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I491"/>
+  <dimension ref="A1:I499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14710,6 +14710,238 @@
         <v>7</v>
       </c>
     </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>10</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+      <c r="E492">
+        <v>1</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+      <c r="G492">
+        <v>1</v>
+      </c>
+      <c r="H492">
+        <v>4</v>
+      </c>
+      <c r="I492">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>18</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+      <c r="E493">
+        <v>1</v>
+      </c>
+      <c r="F493">
+        <v>1</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>10</v>
+      </c>
+      <c r="I493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>28</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+      <c r="E494">
+        <v>1</v>
+      </c>
+      <c r="F494">
+        <v>1</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+      <c r="H494">
+        <v>10</v>
+      </c>
+      <c r="I494">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>9</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
+      <c r="F495">
+        <v>1</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+      <c r="H495">
+        <v>4</v>
+      </c>
+      <c r="I495">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>16</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>1</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+      <c r="E496">
+        <v>1</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+      <c r="G496">
+        <v>2</v>
+      </c>
+      <c r="H496">
+        <v>3</v>
+      </c>
+      <c r="I496">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>13</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+      <c r="E497">
+        <v>1</v>
+      </c>
+      <c r="F497">
+        <v>2</v>
+      </c>
+      <c r="G497">
+        <v>1</v>
+      </c>
+      <c r="H497">
+        <v>9</v>
+      </c>
+      <c r="I497">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>22</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+      <c r="H498">
+        <v>6</v>
+      </c>
+      <c r="I498">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>26</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+      <c r="F499">
+        <v>0</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+      <c r="H499">
+        <v>8</v>
+      </c>
+      <c r="I499">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14717,7 +14949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18905,6 +19137,74 @@
         <v>11</v>
       </c>
     </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>14</v>
+      </c>
+      <c r="D247" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>14</v>
+      </c>
+      <c r="D248" t="s">
+        <v>28</v>
+      </c>
+      <c r="E248" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
+        <v>12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>16</v>
+      </c>
+      <c r="E249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>14</v>
+      </c>
+      <c r="D250" t="s">
+        <v>22</v>
+      </c>
+      <c r="E250" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I499"/>
+  <dimension ref="A1:I503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14942,6 +14942,122 @@
         <v>6</v>
       </c>
     </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>17</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500">
+        <v>1</v>
+      </c>
+      <c r="E500">
+        <v>1</v>
+      </c>
+      <c r="F500">
+        <v>3</v>
+      </c>
+      <c r="G500">
+        <v>2</v>
+      </c>
+      <c r="H500">
+        <v>3</v>
+      </c>
+      <c r="I500">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>14</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+      <c r="C501">
+        <v>1</v>
+      </c>
+      <c r="D501">
+        <v>1</v>
+      </c>
+      <c r="E501">
+        <v>1</v>
+      </c>
+      <c r="F501">
+        <v>2</v>
+      </c>
+      <c r="G501">
+        <v>3</v>
+      </c>
+      <c r="H501">
+        <v>4</v>
+      </c>
+      <c r="I501">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>13</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502">
+        <v>1</v>
+      </c>
+      <c r="E502">
+        <v>1</v>
+      </c>
+      <c r="F502">
+        <v>1</v>
+      </c>
+      <c r="G502">
+        <v>3</v>
+      </c>
+      <c r="H502">
+        <v>13</v>
+      </c>
+      <c r="I502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>21</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+      <c r="C503">
+        <v>1</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="E503">
+        <v>1</v>
+      </c>
+      <c r="F503">
+        <v>3</v>
+      </c>
+      <c r="G503">
+        <v>1</v>
+      </c>
+      <c r="H503">
+        <v>2</v>
+      </c>
+      <c r="I503">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14949,7 +15065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19205,6 +19321,40 @@
         <v>26</v>
       </c>
     </row>
+    <row r="251" spans="1:5">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <v>7</v>
+      </c>
+      <c r="D251" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>4</v>
+      </c>
+      <c r="C252">
+        <v>15</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I503"/>
+  <dimension ref="A1:I509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15058,6 +15058,180 @@
         <v>13</v>
       </c>
     </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>24</v>
+      </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
+      <c r="C504">
+        <v>1</v>
+      </c>
+      <c r="D504">
+        <v>0</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
+      <c r="F504">
+        <v>4</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+      <c r="H504">
+        <v>5</v>
+      </c>
+      <c r="I504">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>23</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+      <c r="D505">
+        <v>1</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>4</v>
+      </c>
+      <c r="H505">
+        <v>8</v>
+      </c>
+      <c r="I505">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>26</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506">
+        <v>1</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+      <c r="F506">
+        <v>1</v>
+      </c>
+      <c r="G506">
+        <v>1</v>
+      </c>
+      <c r="H506">
+        <v>3</v>
+      </c>
+      <c r="I506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>16</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507">
+        <v>1</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+      <c r="F507">
+        <v>1</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>3</v>
+      </c>
+      <c r="I507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>9</v>
+      </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508">
+        <v>1</v>
+      </c>
+      <c r="E508">
+        <v>1</v>
+      </c>
+      <c r="F508">
+        <v>2</v>
+      </c>
+      <c r="G508">
+        <v>2</v>
+      </c>
+      <c r="H508">
+        <v>2</v>
+      </c>
+      <c r="I508">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>27</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509">
+        <v>1</v>
+      </c>
+      <c r="E509">
+        <v>1</v>
+      </c>
+      <c r="F509">
+        <v>2</v>
+      </c>
+      <c r="G509">
+        <v>2</v>
+      </c>
+      <c r="H509">
+        <v>7</v>
+      </c>
+      <c r="I509">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15065,7 +15239,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19355,6 +19529,57 @@
         <v>21</v>
       </c>
     </row>
+    <row r="253" spans="1:5">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>13</v>
+      </c>
+      <c r="D253" t="s">
+        <v>24</v>
+      </c>
+      <c r="E253" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+      <c r="C254">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>26</v>
+      </c>
+      <c r="E254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>9</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I509"/>
+  <dimension ref="A1:I521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15232,6 +15232,354 @@
         <v>2</v>
       </c>
     </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>25</v>
+      </c>
+      <c r="B510">
+        <v>1</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="E510">
+        <v>1</v>
+      </c>
+      <c r="F510">
+        <v>2</v>
+      </c>
+      <c r="G510">
+        <v>2</v>
+      </c>
+      <c r="H510">
+        <v>9</v>
+      </c>
+      <c r="I510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>19</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>1</v>
+      </c>
+      <c r="E511">
+        <v>1</v>
+      </c>
+      <c r="F511">
+        <v>2</v>
+      </c>
+      <c r="G511">
+        <v>2</v>
+      </c>
+      <c r="H511">
+        <v>1</v>
+      </c>
+      <c r="I511">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>22</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+      <c r="E512">
+        <v>1</v>
+      </c>
+      <c r="F512">
+        <v>3</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>5</v>
+      </c>
+      <c r="I512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>17</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>1</v>
+      </c>
+      <c r="E513">
+        <v>1</v>
+      </c>
+      <c r="F513">
+        <v>1</v>
+      </c>
+      <c r="G513">
+        <v>3</v>
+      </c>
+      <c r="H513">
+        <v>3</v>
+      </c>
+      <c r="I513">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>15</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>1</v>
+      </c>
+      <c r="E514">
+        <v>1</v>
+      </c>
+      <c r="F514">
+        <v>1</v>
+      </c>
+      <c r="G514">
+        <v>1</v>
+      </c>
+      <c r="H514">
+        <v>6</v>
+      </c>
+      <c r="I514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>20</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>1</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+      <c r="H515">
+        <v>7</v>
+      </c>
+      <c r="I515">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>18</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>1</v>
+      </c>
+      <c r="G516">
+        <v>0</v>
+      </c>
+      <c r="H516">
+        <v>7</v>
+      </c>
+      <c r="I516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>11</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+      <c r="C517">
+        <v>0</v>
+      </c>
+      <c r="D517">
+        <v>1</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>2</v>
+      </c>
+      <c r="I517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>14</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518">
+        <v>0</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>3</v>
+      </c>
+      <c r="G518">
+        <v>0</v>
+      </c>
+      <c r="H518">
+        <v>2</v>
+      </c>
+      <c r="I518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>10</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+      <c r="C519">
+        <v>0</v>
+      </c>
+      <c r="D519">
+        <v>1</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>3</v>
+      </c>
+      <c r="H519">
+        <v>2</v>
+      </c>
+      <c r="I519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>19</v>
+      </c>
+      <c r="B520">
+        <v>1</v>
+      </c>
+      <c r="C520">
+        <v>1</v>
+      </c>
+      <c r="D520">
+        <v>0</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520">
+        <v>1</v>
+      </c>
+      <c r="G520">
+        <v>0</v>
+      </c>
+      <c r="H520">
+        <v>7</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>9</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+      <c r="C521">
+        <v>0</v>
+      </c>
+      <c r="D521">
+        <v>1</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>1</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15239,7 +15587,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19580,6 +19928,108 @@
         <v>27</v>
       </c>
     </row>
+    <row r="256" spans="1:5">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>25</v>
+      </c>
+      <c r="E256" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+      <c r="C258">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>15</v>
+      </c>
+      <c r="E258" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>9</v>
+      </c>
+      <c r="D259" t="s">
+        <v>18</v>
+      </c>
+      <c r="E259" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261">
+        <v>0</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>7</v>
+      </c>
+      <c r="D261" t="s">
+        <v>19</v>
+      </c>
+      <c r="E261" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I521"/>
+  <dimension ref="A1:I529"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15580,6 +15580,238 @@
         <v>7</v>
       </c>
     </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>11</v>
+      </c>
+      <c r="B522">
+        <v>1</v>
+      </c>
+      <c r="C522">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>1</v>
+      </c>
+      <c r="E522">
+        <v>1</v>
+      </c>
+      <c r="F522">
+        <v>3</v>
+      </c>
+      <c r="G522">
+        <v>2</v>
+      </c>
+      <c r="H522">
+        <v>2</v>
+      </c>
+      <c r="I522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>13</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>1</v>
+      </c>
+      <c r="F523">
+        <v>2</v>
+      </c>
+      <c r="G523">
+        <v>3</v>
+      </c>
+      <c r="H523">
+        <v>5</v>
+      </c>
+      <c r="I523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>10</v>
+      </c>
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524">
+        <v>1</v>
+      </c>
+      <c r="E524">
+        <v>1</v>
+      </c>
+      <c r="F524">
+        <v>1</v>
+      </c>
+      <c r="G524">
+        <v>1</v>
+      </c>
+      <c r="H524">
+        <v>4</v>
+      </c>
+      <c r="I524">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>25</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>1</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="E525">
+        <v>1</v>
+      </c>
+      <c r="F525">
+        <v>1</v>
+      </c>
+      <c r="G525">
+        <v>1</v>
+      </c>
+      <c r="H525">
+        <v>9</v>
+      </c>
+      <c r="I525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>23</v>
+      </c>
+      <c r="B526">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+      <c r="D526">
+        <v>1</v>
+      </c>
+      <c r="E526">
+        <v>1</v>
+      </c>
+      <c r="F526">
+        <v>3</v>
+      </c>
+      <c r="G526">
+        <v>3</v>
+      </c>
+      <c r="H526">
+        <v>4</v>
+      </c>
+      <c r="I526">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9">
+      <c r="A527" t="s">
+        <v>15</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527">
+        <v>1</v>
+      </c>
+      <c r="E527">
+        <v>1</v>
+      </c>
+      <c r="F527">
+        <v>3</v>
+      </c>
+      <c r="G527">
+        <v>3</v>
+      </c>
+      <c r="H527">
+        <v>4</v>
+      </c>
+      <c r="I527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9">
+      <c r="A528" t="s">
+        <v>12</v>
+      </c>
+      <c r="B528">
+        <v>1</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="E528">
+        <v>1</v>
+      </c>
+      <c r="F528">
+        <v>2</v>
+      </c>
+      <c r="G528">
+        <v>2</v>
+      </c>
+      <c r="H528">
+        <v>2</v>
+      </c>
+      <c r="I528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>18</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+      <c r="E529">
+        <v>1</v>
+      </c>
+      <c r="F529">
+        <v>2</v>
+      </c>
+      <c r="G529">
+        <v>2</v>
+      </c>
+      <c r="H529">
+        <v>2</v>
+      </c>
+      <c r="I529">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15587,7 +15819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20030,6 +20262,74 @@
         <v>9</v>
       </c>
     </row>
+    <row r="262" spans="1:5">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262">
+        <v>5</v>
+      </c>
+      <c r="C262">
+        <v>7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <v>13</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>8</v>
+      </c>
+      <c r="D264" t="s">
+        <v>23</v>
+      </c>
+      <c r="E264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <v>4</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I529"/>
+  <dimension ref="A1:I541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15812,6 +15812,354 @@
         <v>2</v>
       </c>
     </row>
+    <row r="530" spans="1:9">
+      <c r="A530" t="s">
+        <v>21</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530">
+        <v>1</v>
+      </c>
+      <c r="E530">
+        <v>1</v>
+      </c>
+      <c r="F530">
+        <v>5</v>
+      </c>
+      <c r="G530">
+        <v>1</v>
+      </c>
+      <c r="H530">
+        <v>6</v>
+      </c>
+      <c r="I530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9">
+      <c r="A531" t="s">
+        <v>28</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+      <c r="D531">
+        <v>1</v>
+      </c>
+      <c r="E531">
+        <v>1</v>
+      </c>
+      <c r="F531">
+        <v>1</v>
+      </c>
+      <c r="G531">
+        <v>5</v>
+      </c>
+      <c r="H531">
+        <v>4</v>
+      </c>
+      <c r="I531">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9">
+      <c r="A532" t="s">
+        <v>27</v>
+      </c>
+      <c r="B532">
+        <v>1</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+      <c r="F532">
+        <v>2</v>
+      </c>
+      <c r="G532">
+        <v>1</v>
+      </c>
+      <c r="H532">
+        <v>4</v>
+      </c>
+      <c r="I532">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9">
+      <c r="A533" t="s">
+        <v>22</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533">
+        <v>1</v>
+      </c>
+      <c r="E533">
+        <v>1</v>
+      </c>
+      <c r="F533">
+        <v>1</v>
+      </c>
+      <c r="G533">
+        <v>2</v>
+      </c>
+      <c r="H533">
+        <v>6</v>
+      </c>
+      <c r="I533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9">
+      <c r="A534" t="s">
+        <v>16</v>
+      </c>
+      <c r="B534">
+        <v>1</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>0</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
+      </c>
+      <c r="G534">
+        <v>0</v>
+      </c>
+      <c r="H534">
+        <v>8</v>
+      </c>
+      <c r="I534">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9">
+      <c r="A535" t="s">
+        <v>14</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+      <c r="D535">
+        <v>1</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <v>1</v>
+      </c>
+      <c r="H535">
+        <v>5</v>
+      </c>
+      <c r="I535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9">
+      <c r="A536" t="s">
+        <v>17</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+      <c r="D536">
+        <v>0</v>
+      </c>
+      <c r="E536">
+        <v>0</v>
+      </c>
+      <c r="F536">
+        <v>0</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>4</v>
+      </c>
+      <c r="I536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>24</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+      <c r="G537">
+        <v>0</v>
+      </c>
+      <c r="H537">
+        <v>4</v>
+      </c>
+      <c r="I537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9">
+      <c r="A538" t="s">
+        <v>20</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538">
+        <v>0</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>1</v>
+      </c>
+      <c r="G538">
+        <v>0</v>
+      </c>
+      <c r="H538">
+        <v>5</v>
+      </c>
+      <c r="I538">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9">
+      <c r="A539" t="s">
+        <v>26</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0</v>
+      </c>
+      <c r="G539">
+        <v>1</v>
+      </c>
+      <c r="H539">
+        <v>5</v>
+      </c>
+      <c r="I539">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9">
+      <c r="A540" t="s">
+        <v>24</v>
+      </c>
+      <c r="B540">
+        <v>1</v>
+      </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>1</v>
+      </c>
+      <c r="G540">
+        <v>0</v>
+      </c>
+      <c r="H540">
+        <v>4</v>
+      </c>
+      <c r="I540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9">
+      <c r="A541" t="s">
+        <v>16</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+      <c r="D541">
+        <v>1</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>0</v>
+      </c>
+      <c r="G541">
+        <v>1</v>
+      </c>
+      <c r="H541">
+        <v>1</v>
+      </c>
+      <c r="I541">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15819,7 +16167,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E265"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20330,6 +20678,108 @@
         <v>18</v>
       </c>
     </row>
+    <row r="266" spans="1:5">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+      <c r="C266">
+        <v>10</v>
+      </c>
+      <c r="D266" t="s">
+        <v>21</v>
+      </c>
+      <c r="E266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <v>10</v>
+      </c>
+      <c r="D267" t="s">
+        <v>27</v>
+      </c>
+      <c r="E267" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>16</v>
+      </c>
+      <c r="E268" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>10</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+      <c r="D271" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I541"/>
+  <dimension ref="A1:I549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16160,6 +16160,238 @@
         <v>4</v>
       </c>
     </row>
+    <row r="542" spans="1:9">
+      <c r="A542" t="s">
+        <v>12</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="C542">
+        <v>1</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="E542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>1</v>
+      </c>
+      <c r="G542">
+        <v>0</v>
+      </c>
+      <c r="H542">
+        <v>5</v>
+      </c>
+      <c r="I542">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9">
+      <c r="A543" t="s">
+        <v>23</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+      <c r="C543">
+        <v>0</v>
+      </c>
+      <c r="D543">
+        <v>1</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>1</v>
+      </c>
+      <c r="H543">
+        <v>5</v>
+      </c>
+      <c r="I543">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9">
+      <c r="A544" t="s">
+        <v>25</v>
+      </c>
+      <c r="B544">
+        <v>1</v>
+      </c>
+      <c r="C544">
+        <v>1</v>
+      </c>
+      <c r="D544">
+        <v>0</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>2</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+      <c r="H544">
+        <v>3</v>
+      </c>
+      <c r="I544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>27</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545">
+        <v>1</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+      <c r="G545">
+        <v>2</v>
+      </c>
+      <c r="H545">
+        <v>1</v>
+      </c>
+      <c r="I545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9">
+      <c r="A546" t="s">
+        <v>28</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546">
+        <v>1</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
+      <c r="F546">
+        <v>2</v>
+      </c>
+      <c r="G546">
+        <v>3</v>
+      </c>
+      <c r="H546">
+        <v>4</v>
+      </c>
+      <c r="I546">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9">
+      <c r="A547" t="s">
+        <v>13</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>1</v>
+      </c>
+      <c r="E547">
+        <v>1</v>
+      </c>
+      <c r="F547">
+        <v>3</v>
+      </c>
+      <c r="G547">
+        <v>2</v>
+      </c>
+      <c r="H547">
+        <v>6</v>
+      </c>
+      <c r="I547">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9">
+      <c r="A548" t="s">
+        <v>14</v>
+      </c>
+      <c r="B548">
+        <v>1</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548">
+        <v>0</v>
+      </c>
+      <c r="E548">
+        <v>0</v>
+      </c>
+      <c r="F548">
+        <v>2</v>
+      </c>
+      <c r="G548">
+        <v>0</v>
+      </c>
+      <c r="H548">
+        <v>5</v>
+      </c>
+      <c r="I548">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9">
+      <c r="A549" t="s">
+        <v>20</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+      <c r="D549">
+        <v>1</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+      <c r="G549">
+        <v>2</v>
+      </c>
+      <c r="H549">
+        <v>7</v>
+      </c>
+      <c r="I549">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16167,7 +16399,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20780,6 +21012,74 @@
         <v>16</v>
       </c>
     </row>
+    <row r="272" spans="1:5">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>10</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>4</v>
+      </c>
+      <c r="D273" t="s">
+        <v>25</v>
+      </c>
+      <c r="E273" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274">
+        <v>5</v>
+      </c>
+      <c r="C274">
+        <v>10</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>12</v>
+      </c>
+      <c r="D275" t="s">
+        <v>14</v>
+      </c>
+      <c r="E275" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I549"/>
+  <dimension ref="A1:I569"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16392,6 +16392,586 @@
         <v>5</v>
       </c>
     </row>
+    <row r="550" spans="1:9">
+      <c r="A550" t="s">
+        <v>26</v>
+      </c>
+      <c r="B550">
+        <v>1</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550">
+        <v>0</v>
+      </c>
+      <c r="E550">
+        <v>0</v>
+      </c>
+      <c r="F550">
+        <v>1</v>
+      </c>
+      <c r="G550">
+        <v>0</v>
+      </c>
+      <c r="H550">
+        <v>7</v>
+      </c>
+      <c r="I550">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9">
+      <c r="A551" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+      <c r="C551">
+        <v>0</v>
+      </c>
+      <c r="D551">
+        <v>1</v>
+      </c>
+      <c r="E551">
+        <v>0</v>
+      </c>
+      <c r="F551">
+        <v>0</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551">
+        <v>5</v>
+      </c>
+      <c r="I551">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9">
+      <c r="A552" t="s">
+        <v>15</v>
+      </c>
+      <c r="B552">
+        <v>1</v>
+      </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
+      <c r="D552">
+        <v>1</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="F552">
+        <v>0</v>
+      </c>
+      <c r="G552">
+        <v>2</v>
+      </c>
+      <c r="H552">
+        <v>10</v>
+      </c>
+      <c r="I552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9">
+      <c r="A553" t="s">
+        <v>17</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>0</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>2</v>
+      </c>
+      <c r="G553">
+        <v>0</v>
+      </c>
+      <c r="H553">
+        <v>3</v>
+      </c>
+      <c r="I553">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9">
+      <c r="A554" t="s">
+        <v>18</v>
+      </c>
+      <c r="B554">
+        <v>1</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>4</v>
+      </c>
+      <c r="G554">
+        <v>0</v>
+      </c>
+      <c r="H554">
+        <v>12</v>
+      </c>
+      <c r="I554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9">
+      <c r="A555" t="s">
+        <v>19</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>0</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="E555">
+        <v>0</v>
+      </c>
+      <c r="F555">
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <v>4</v>
+      </c>
+      <c r="H555">
+        <v>1</v>
+      </c>
+      <c r="I555">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9">
+      <c r="A556" t="s">
+        <v>22</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="E556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>2</v>
+      </c>
+      <c r="G556">
+        <v>3</v>
+      </c>
+      <c r="H556">
+        <v>11</v>
+      </c>
+      <c r="I556">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9">
+      <c r="A557" t="s">
+        <v>21</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>1</v>
+      </c>
+      <c r="E557">
+        <v>1</v>
+      </c>
+      <c r="F557">
+        <v>3</v>
+      </c>
+      <c r="G557">
+        <v>2</v>
+      </c>
+      <c r="H557">
+        <v>4</v>
+      </c>
+      <c r="I557">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9">
+      <c r="A558" t="s">
+        <v>9</v>
+      </c>
+      <c r="B558">
+        <v>1</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558">
+        <v>2</v>
+      </c>
+      <c r="G558">
+        <v>2</v>
+      </c>
+      <c r="H558">
+        <v>1</v>
+      </c>
+      <c r="I558">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9">
+      <c r="A559" t="s">
+        <v>11</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559">
+        <v>2</v>
+      </c>
+      <c r="G559">
+        <v>2</v>
+      </c>
+      <c r="H559">
+        <v>8</v>
+      </c>
+      <c r="I559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9">
+      <c r="A560" t="s">
+        <v>13</v>
+      </c>
+      <c r="B560">
+        <v>1</v>
+      </c>
+      <c r="C560">
+        <v>1</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560">
+        <v>2</v>
+      </c>
+      <c r="G560">
+        <v>0</v>
+      </c>
+      <c r="H560">
+        <v>8</v>
+      </c>
+      <c r="I560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9">
+      <c r="A561" t="s">
+        <v>25</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+      <c r="D561">
+        <v>1</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+      <c r="F561">
+        <v>0</v>
+      </c>
+      <c r="G561">
+        <v>2</v>
+      </c>
+      <c r="H561">
+        <v>2</v>
+      </c>
+      <c r="I561">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9">
+      <c r="A562" t="s">
+        <v>16</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562">
+        <v>0</v>
+      </c>
+      <c r="E562">
+        <v>0</v>
+      </c>
+      <c r="F562">
+        <v>1</v>
+      </c>
+      <c r="G562">
+        <v>0</v>
+      </c>
+      <c r="H562">
+        <v>10</v>
+      </c>
+      <c r="I562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9">
+      <c r="A563" t="s">
+        <v>28</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>1</v>
+      </c>
+      <c r="H563">
+        <v>2</v>
+      </c>
+      <c r="I563">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9">
+      <c r="A564" t="s">
+        <v>20</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
+      <c r="F564">
+        <v>2</v>
+      </c>
+      <c r="G564">
+        <v>4</v>
+      </c>
+      <c r="H564">
+        <v>5</v>
+      </c>
+      <c r="I564">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9">
+      <c r="A565" t="s">
+        <v>18</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>4</v>
+      </c>
+      <c r="G565">
+        <v>2</v>
+      </c>
+      <c r="H565">
+        <v>7</v>
+      </c>
+      <c r="I565">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" t="s">
+        <v>23</v>
+      </c>
+      <c r="B566">
+        <v>1</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566">
+        <v>0</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>1</v>
+      </c>
+      <c r="G566">
+        <v>0</v>
+      </c>
+      <c r="H566">
+        <v>2</v>
+      </c>
+      <c r="I566">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9">
+      <c r="A567" t="s">
+        <v>14</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567">
+        <v>5</v>
+      </c>
+      <c r="I567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9">
+      <c r="A568" t="s">
+        <v>17</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>0</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>2</v>
+      </c>
+      <c r="G568">
+        <v>0</v>
+      </c>
+      <c r="H568">
+        <v>5</v>
+      </c>
+      <c r="I568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9">
+      <c r="A569" t="s">
+        <v>26</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>0</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>2</v>
+      </c>
+      <c r="H569">
+        <v>4</v>
+      </c>
+      <c r="I569">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16399,7 +16979,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E285"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21080,6 +21660,176 @@
         <v>20</v>
       </c>
     </row>
+    <row r="276" spans="1:5">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>12</v>
+      </c>
+      <c r="D276" t="s">
+        <v>26</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>15</v>
+      </c>
+      <c r="E277" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279">
+        <v>15</v>
+      </c>
+      <c r="D279" t="s">
+        <v>22</v>
+      </c>
+      <c r="E279" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>4</v>
+      </c>
+      <c r="C280">
+        <v>9</v>
+      </c>
+      <c r="D280" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+      <c r="D281" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>12</v>
+      </c>
+      <c r="D282" t="s">
+        <v>16</v>
+      </c>
+      <c r="E282" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283">
+        <v>6</v>
+      </c>
+      <c r="C283">
+        <v>12</v>
+      </c>
+      <c r="D283" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>7</v>
+      </c>
+      <c r="D284" t="s">
+        <v>23</v>
+      </c>
+      <c r="E284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+      <c r="C285">
+        <v>9</v>
+      </c>
+      <c r="D285" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I569"/>
+  <dimension ref="A1:I581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16972,6 +16972,354 @@
         <v>5</v>
       </c>
     </row>
+    <row r="570" spans="1:9">
+      <c r="A570" t="s">
+        <v>11</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+      <c r="C570">
+        <v>1</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>1</v>
+      </c>
+      <c r="F570">
+        <v>1</v>
+      </c>
+      <c r="G570">
+        <v>2</v>
+      </c>
+      <c r="H570">
+        <v>3</v>
+      </c>
+      <c r="I570">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9">
+      <c r="A571" t="s">
+        <v>19</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>2</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571">
+        <v>8</v>
+      </c>
+      <c r="I571">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9">
+      <c r="A572" t="s">
+        <v>15</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+      <c r="C572">
+        <v>0</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="E572">
+        <v>0</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572">
+        <v>11</v>
+      </c>
+      <c r="I572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" t="s">
+        <v>9</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573">
+        <v>0</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>1</v>
+      </c>
+      <c r="G573">
+        <v>0</v>
+      </c>
+      <c r="H573">
+        <v>3</v>
+      </c>
+      <c r="I573">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9">
+      <c r="A574" t="s">
+        <v>21</v>
+      </c>
+      <c r="B574">
+        <v>1</v>
+      </c>
+      <c r="C574">
+        <v>1</v>
+      </c>
+      <c r="D574">
+        <v>0</v>
+      </c>
+      <c r="E574">
+        <v>0</v>
+      </c>
+      <c r="F574">
+        <v>1</v>
+      </c>
+      <c r="G574">
+        <v>0</v>
+      </c>
+      <c r="H574">
+        <v>5</v>
+      </c>
+      <c r="I574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" t="s">
+        <v>12</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+      <c r="D575">
+        <v>1</v>
+      </c>
+      <c r="E575">
+        <v>0</v>
+      </c>
+      <c r="F575">
+        <v>0</v>
+      </c>
+      <c r="G575">
+        <v>1</v>
+      </c>
+      <c r="H575">
+        <v>2</v>
+      </c>
+      <c r="I575">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" t="s">
+        <v>10</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576">
+        <v>0</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576">
+        <v>2</v>
+      </c>
+      <c r="G576">
+        <v>0</v>
+      </c>
+      <c r="H576">
+        <v>4</v>
+      </c>
+      <c r="I576">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9">
+      <c r="A577" t="s">
+        <v>22</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+      <c r="D577">
+        <v>1</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+      <c r="F577">
+        <v>0</v>
+      </c>
+      <c r="G577">
+        <v>2</v>
+      </c>
+      <c r="H577">
+        <v>8</v>
+      </c>
+      <c r="I577">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9">
+      <c r="A578" t="s">
+        <v>27</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578">
+        <v>0</v>
+      </c>
+      <c r="D578">
+        <v>1</v>
+      </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
+      <c r="F578">
+        <v>0</v>
+      </c>
+      <c r="G578">
+        <v>3</v>
+      </c>
+      <c r="H578">
+        <v>7</v>
+      </c>
+      <c r="I578">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9">
+      <c r="A579" t="s">
+        <v>24</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+      <c r="C579">
+        <v>1</v>
+      </c>
+      <c r="D579">
+        <v>0</v>
+      </c>
+      <c r="E579">
+        <v>0</v>
+      </c>
+      <c r="F579">
+        <v>3</v>
+      </c>
+      <c r="G579">
+        <v>0</v>
+      </c>
+      <c r="H579">
+        <v>3</v>
+      </c>
+      <c r="I579">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9">
+      <c r="A580" t="s">
+        <v>25</v>
+      </c>
+      <c r="B580">
+        <v>1</v>
+      </c>
+      <c r="C580">
+        <v>1</v>
+      </c>
+      <c r="D580">
+        <v>0</v>
+      </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
+      <c r="F580">
+        <v>1</v>
+      </c>
+      <c r="G580">
+        <v>0</v>
+      </c>
+      <c r="H580">
+        <v>5</v>
+      </c>
+      <c r="I580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" t="s">
+        <v>28</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+      <c r="C581">
+        <v>0</v>
+      </c>
+      <c r="D581">
+        <v>1</v>
+      </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
+      <c r="F581">
+        <v>0</v>
+      </c>
+      <c r="G581">
+        <v>1</v>
+      </c>
+      <c r="H581">
+        <v>2</v>
+      </c>
+      <c r="I581">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16979,7 +17327,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21830,6 +22178,108 @@
         <v>26</v>
       </c>
     </row>
+    <row r="286" spans="1:5">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>15</v>
+      </c>
+      <c r="E287" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>7</v>
+      </c>
+      <c r="D288" t="s">
+        <v>21</v>
+      </c>
+      <c r="E288" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>12</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290">
+        <v>10</v>
+      </c>
+      <c r="D290" t="s">
+        <v>27</v>
+      </c>
+      <c r="E290" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>7</v>
+      </c>
+      <c r="D291" t="s">
+        <v>25</v>
+      </c>
+      <c r="E291" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I581"/>
+  <dimension ref="A1:I589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17320,6 +17320,238 @@
         <v>5</v>
       </c>
     </row>
+    <row r="582" spans="1:9">
+      <c r="A582" t="s">
+        <v>23</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+      <c r="D582">
+        <v>1</v>
+      </c>
+      <c r="E582">
+        <v>0</v>
+      </c>
+      <c r="F582">
+        <v>0</v>
+      </c>
+      <c r="G582">
+        <v>1</v>
+      </c>
+      <c r="H582">
+        <v>6</v>
+      </c>
+      <c r="I582">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9">
+      <c r="A583" t="s">
+        <v>11</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583">
+        <v>0</v>
+      </c>
+      <c r="E583">
+        <v>0</v>
+      </c>
+      <c r="F583">
+        <v>1</v>
+      </c>
+      <c r="G583">
+        <v>0</v>
+      </c>
+      <c r="H583">
+        <v>3</v>
+      </c>
+      <c r="I583">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9">
+      <c r="A584" t="s">
+        <v>9</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+      <c r="D584">
+        <v>1</v>
+      </c>
+      <c r="E584">
+        <v>0</v>
+      </c>
+      <c r="F584">
+        <v>0</v>
+      </c>
+      <c r="G584">
+        <v>3</v>
+      </c>
+      <c r="H584">
+        <v>6</v>
+      </c>
+      <c r="I584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9">
+      <c r="A585" t="s">
+        <v>20</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585">
+        <v>0</v>
+      </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
+      <c r="F585">
+        <v>3</v>
+      </c>
+      <c r="G585">
+        <v>0</v>
+      </c>
+      <c r="H585">
+        <v>1</v>
+      </c>
+      <c r="I585">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9">
+      <c r="A586" t="s">
+        <v>12</v>
+      </c>
+      <c r="B586">
+        <v>1</v>
+      </c>
+      <c r="C586">
+        <v>0</v>
+      </c>
+      <c r="D586">
+        <v>0</v>
+      </c>
+      <c r="E586">
+        <v>0</v>
+      </c>
+      <c r="F586">
+        <v>0</v>
+      </c>
+      <c r="G586">
+        <v>0</v>
+      </c>
+      <c r="H586">
+        <v>3</v>
+      </c>
+      <c r="I586">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9">
+      <c r="A587" t="s">
+        <v>16</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>0</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+      <c r="F587">
+        <v>0</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587">
+        <v>3</v>
+      </c>
+      <c r="I587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:9">
+      <c r="A588" t="s">
+        <v>24</v>
+      </c>
+      <c r="B588">
+        <v>1</v>
+      </c>
+      <c r="C588">
+        <v>1</v>
+      </c>
+      <c r="D588">
+        <v>0</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>1</v>
+      </c>
+      <c r="G588">
+        <v>0</v>
+      </c>
+      <c r="H588">
+        <v>6</v>
+      </c>
+      <c r="I588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9">
+      <c r="A589" t="s">
+        <v>15</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589">
+        <v>1</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589">
+        <v>0</v>
+      </c>
+      <c r="G589">
+        <v>1</v>
+      </c>
+      <c r="H589">
+        <v>1</v>
+      </c>
+      <c r="I589">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17327,7 +17559,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22280,6 +22512,74 @@
         <v>28</v>
       </c>
     </row>
+    <row r="292" spans="1:5">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>9</v>
+      </c>
+      <c r="D292" t="s">
+        <v>23</v>
+      </c>
+      <c r="E292" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="C293">
+        <v>7</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>7</v>
+      </c>
+      <c r="D295" t="s">
+        <v>24</v>
+      </c>
+      <c r="E295" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I589"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17552,6 +17552,354 @@
         <v>6</v>
       </c>
     </row>
+    <row r="590" spans="1:9">
+      <c r="A590" t="s">
+        <v>19</v>
+      </c>
+      <c r="B590">
+        <v>1</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+      <c r="F590">
+        <v>0</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590">
+        <v>3</v>
+      </c>
+      <c r="I590">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9">
+      <c r="A591" t="s">
+        <v>10</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>0</v>
+      </c>
+      <c r="G591">
+        <v>0</v>
+      </c>
+      <c r="H591">
+        <v>2</v>
+      </c>
+      <c r="I591">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9">
+      <c r="A592" t="s">
+        <v>14</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592">
+        <v>1</v>
+      </c>
+      <c r="E592">
+        <v>1</v>
+      </c>
+      <c r="F592">
+        <v>3</v>
+      </c>
+      <c r="G592">
+        <v>2</v>
+      </c>
+      <c r="H592">
+        <v>5</v>
+      </c>
+      <c r="I592">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593" t="s">
+        <v>22</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593">
+        <v>1</v>
+      </c>
+      <c r="E593">
+        <v>1</v>
+      </c>
+      <c r="F593">
+        <v>2</v>
+      </c>
+      <c r="G593">
+        <v>3</v>
+      </c>
+      <c r="H593">
+        <v>4</v>
+      </c>
+      <c r="I593">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" t="s">
+        <v>26</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>0</v>
+      </c>
+      <c r="D594">
+        <v>1</v>
+      </c>
+      <c r="E594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>0</v>
+      </c>
+      <c r="G594">
+        <v>1</v>
+      </c>
+      <c r="H594">
+        <v>3</v>
+      </c>
+      <c r="I594">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" t="s">
+        <v>13</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595">
+        <v>0</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+      <c r="F595">
+        <v>1</v>
+      </c>
+      <c r="G595">
+        <v>0</v>
+      </c>
+      <c r="H595">
+        <v>8</v>
+      </c>
+      <c r="I595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" t="s">
+        <v>18</v>
+      </c>
+      <c r="B596">
+        <v>1</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>0</v>
+      </c>
+      <c r="E596">
+        <v>0</v>
+      </c>
+      <c r="F596">
+        <v>2</v>
+      </c>
+      <c r="G596">
+        <v>0</v>
+      </c>
+      <c r="H596">
+        <v>4</v>
+      </c>
+      <c r="I596">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" t="s">
+        <v>17</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+      <c r="F597">
+        <v>0</v>
+      </c>
+      <c r="G597">
+        <v>2</v>
+      </c>
+      <c r="H597">
+        <v>7</v>
+      </c>
+      <c r="I597">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" t="s">
+        <v>21</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598">
+        <v>1</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+      <c r="G598">
+        <v>2</v>
+      </c>
+      <c r="H598">
+        <v>3</v>
+      </c>
+      <c r="I598">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" t="s">
+        <v>27</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>1</v>
+      </c>
+      <c r="F599">
+        <v>2</v>
+      </c>
+      <c r="G599">
+        <v>1</v>
+      </c>
+      <c r="H599">
+        <v>3</v>
+      </c>
+      <c r="I599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" t="s">
+        <v>28</v>
+      </c>
+      <c r="B600">
+        <v>1</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="F600">
+        <v>0</v>
+      </c>
+      <c r="G600">
+        <v>1</v>
+      </c>
+      <c r="H600">
+        <v>5</v>
+      </c>
+      <c r="I600">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" t="s">
+        <v>12</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601">
+        <v>0</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+      <c r="G601">
+        <v>0</v>
+      </c>
+      <c r="H601">
+        <v>4</v>
+      </c>
+      <c r="I601">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17559,7 +17907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22580,6 +22928,108 @@
         <v>15</v>
       </c>
     </row>
+    <row r="296" spans="1:5">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+      <c r="D296" t="s">
+        <v>19</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>9</v>
+      </c>
+      <c r="D297" t="s">
+        <v>14</v>
+      </c>
+      <c r="E297" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s">
+        <v>26</v>
+      </c>
+      <c r="E298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s">
+        <v>18</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>21</v>
+      </c>
+      <c r="E300" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>9</v>
+      </c>
+      <c r="D301" t="s">
+        <v>28</v>
+      </c>
+      <c r="E301" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/espanhol.xlsx
+++ b/espanhol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="31">
   <si>
     <t>Nome do Time</t>
   </si>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I623"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17900,6 +17900,644 @@
         <v>5</v>
       </c>
     </row>
+    <row r="602" spans="1:9">
+      <c r="A602" t="s">
+        <v>22</v>
+      </c>
+      <c r="B602">
+        <v>1</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>1</v>
+      </c>
+      <c r="F602">
+        <v>2</v>
+      </c>
+      <c r="G602">
+        <v>1</v>
+      </c>
+      <c r="H602">
+        <v>6</v>
+      </c>
+      <c r="I602">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603" t="s">
+        <v>19</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+      <c r="F603">
+        <v>1</v>
+      </c>
+      <c r="G603">
+        <v>2</v>
+      </c>
+      <c r="H603">
+        <v>5</v>
+      </c>
+      <c r="I603">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604" t="s">
+        <v>27</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>1</v>
+      </c>
+      <c r="F604">
+        <v>3</v>
+      </c>
+      <c r="G604">
+        <v>1</v>
+      </c>
+      <c r="H604">
+        <v>2</v>
+      </c>
+      <c r="I604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="A605" t="s">
+        <v>14</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>1</v>
+      </c>
+      <c r="F605">
+        <v>1</v>
+      </c>
+      <c r="G605">
+        <v>3</v>
+      </c>
+      <c r="H605">
+        <v>0</v>
+      </c>
+      <c r="I605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="A606" t="s">
+        <v>10</v>
+      </c>
+      <c r="B606">
+        <v>1</v>
+      </c>
+      <c r="C606">
+        <v>0</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
+      </c>
+      <c r="G606">
+        <v>0</v>
+      </c>
+      <c r="H606">
+        <v>3</v>
+      </c>
+      <c r="I606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="A607" t="s">
+        <v>23</v>
+      </c>
+      <c r="B607">
+        <v>0</v>
+      </c>
+      <c r="C607">
+        <v>0</v>
+      </c>
+      <c r="D607">
+        <v>0</v>
+      </c>
+      <c r="E607">
+        <v>0</v>
+      </c>
+      <c r="F607">
+        <v>0</v>
+      </c>
+      <c r="G607">
+        <v>0</v>
+      </c>
+      <c r="H607">
+        <v>0</v>
+      </c>
+      <c r="I607">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="A608" t="s">
+        <v>16</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="F608">
+        <v>0</v>
+      </c>
+      <c r="G608">
+        <v>1</v>
+      </c>
+      <c r="H608">
+        <v>4</v>
+      </c>
+      <c r="I608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9">
+      <c r="A609" t="s">
+        <v>18</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609">
+        <v>0</v>
+      </c>
+      <c r="E609">
+        <v>0</v>
+      </c>
+      <c r="F609">
+        <v>1</v>
+      </c>
+      <c r="G609">
+        <v>0</v>
+      </c>
+      <c r="H609">
+        <v>2</v>
+      </c>
+      <c r="I609">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="A610" t="s">
+        <v>25</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="E610">
+        <v>0</v>
+      </c>
+      <c r="F610">
+        <v>0</v>
+      </c>
+      <c r="G610">
+        <v>1</v>
+      </c>
+      <c r="H610">
+        <v>8</v>
+      </c>
+      <c r="I610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" t="s">
+        <v>24</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>0</v>
+      </c>
+      <c r="F611">
+        <v>1</v>
+      </c>
+      <c r="G611">
+        <v>0</v>
+      </c>
+      <c r="H611">
+        <v>4</v>
+      </c>
+      <c r="I611">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612" t="s">
+        <v>15</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>1</v>
+      </c>
+      <c r="E612">
+        <v>0</v>
+      </c>
+      <c r="F612">
+        <v>0</v>
+      </c>
+      <c r="G612">
+        <v>2</v>
+      </c>
+      <c r="H612">
+        <v>6</v>
+      </c>
+      <c r="I612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613" t="s">
+        <v>11</v>
+      </c>
+      <c r="B613">
+        <v>0</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613">
+        <v>0</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="F613">
+        <v>2</v>
+      </c>
+      <c r="G613">
+        <v>0</v>
+      </c>
+      <c r="H613">
+        <v>2</v>
+      </c>
+      <c r="I613">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614" t="s">
+        <v>28</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614">
+        <v>0</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614">
+        <v>2</v>
+      </c>
+      <c r="G614">
+        <v>0</v>
+      </c>
+      <c r="H614">
+        <v>1</v>
+      </c>
+      <c r="I614">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615" t="s">
+        <v>26</v>
+      </c>
+      <c r="B615">
+        <v>0</v>
+      </c>
+      <c r="C615">
+        <v>0</v>
+      </c>
+      <c r="D615">
+        <v>1</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>0</v>
+      </c>
+      <c r="G615">
+        <v>2</v>
+      </c>
+      <c r="H615">
+        <v>5</v>
+      </c>
+      <c r="I615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9">
+      <c r="A616" t="s">
+        <v>17</v>
+      </c>
+      <c r="B616">
+        <v>1</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616">
+        <v>1</v>
+      </c>
+      <c r="E616">
+        <v>1</v>
+      </c>
+      <c r="F616">
+        <v>1</v>
+      </c>
+      <c r="G616">
+        <v>1</v>
+      </c>
+      <c r="H616">
+        <v>3</v>
+      </c>
+      <c r="I616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9">
+      <c r="A617" t="s">
+        <v>21</v>
+      </c>
+      <c r="B617">
+        <v>0</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>1</v>
+      </c>
+      <c r="G617">
+        <v>1</v>
+      </c>
+      <c r="H617">
+        <v>1</v>
+      </c>
+      <c r="I617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9">
+      <c r="A618" t="s">
+        <v>13</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+      <c r="D618">
+        <v>1</v>
+      </c>
+      <c r="E618">
+        <v>1</v>
+      </c>
+      <c r="F618">
+        <v>2</v>
+      </c>
+      <c r="G618">
+        <v>2</v>
+      </c>
+      <c r="H618">
+        <v>5</v>
+      </c>
+      <c r="I618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9">
+      <c r="A619" t="s">
+        <v>9</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+      <c r="D619">
+        <v>1</v>
+      </c>
+      <c r="E619">
+        <v>1</v>
+      </c>
+      <c r="F619">
+        <v>2</v>
+      </c>
+      <c r="G619">
+        <v>2</v>
+      </c>
+      <c r="H619">
+        <v>1</v>
+      </c>
+      <c r="I619">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9">
+      <c r="A620" t="s">
+        <v>20</v>
+      </c>
+      <c r="B620">
+        <v>1</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
+      </c>
+      <c r="D620">
+        <v>1</v>
+      </c>
+      <c r="E620">
+        <v>0</v>
+      </c>
+      <c r="F620">
+        <v>0</v>
+      </c>
+      <c r="G620">
+        <v>1</v>
+      </c>
+      <c r="H620">
+        <v>4</v>
+      </c>
+      <c r="I620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9">
+      <c r="A621" t="s">
+        <v>12</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="D621">
+        <v>0</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621">
+        <v>1</v>
+      </c>
+      <c r="G621">
+        <v>0</v>
+      </c>
+      <c r="H621">
+        <v>1</v>
+      </c>
+      <c r="I621">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9">
+      <c r="A622" t="s">
+        <v>17</v>
+      </c>
+      <c r="B622">
+        <v>1</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+      <c r="D622">
+        <v>1</v>
+      </c>
+      <c r="E622">
+        <v>1</v>
+      </c>
+      <c r="F622">
+        <v>1</v>
+      </c>
+      <c r="G622">
+        <v>1</v>
+      </c>
+      <c r="H622">
+        <v>11</v>
+      </c>
+      <c r="I622">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9">
+      <c r="A623" t="s">
+        <v>28</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623">
+        <v>1</v>
+      </c>
+      <c r="E623">
+        <v>1</v>
+      </c>
+      <c r="F623">
+        <v>1</v>
+      </c>
+      <c r="G623">
+        <v>1</v>
+      </c>
+      <c r="H623">
+        <v>4</v>
+      </c>
+      <c r="I623">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17907,7 +18545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23030,6 +23668,193 @@
         <v>12</v>
       </c>
     </row>
+    <row r="302" spans="1:5">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s">
+        <v>22</v>
+      </c>
+      <c r="E302" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>27</v>
+      </c>
+      <c r="E303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>3</v>
+      </c>
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>12</v>
+      </c>
+      <c r="D306" t="s">
+        <v>25</v>
+      </c>
+      <c r="E306" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>8</v>
+      </c>
+      <c r="D307" t="s">
+        <v>15</v>
+      </c>
+      <c r="E307" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>28</v>
+      </c>
+      <c r="E308" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+      <c r="C309">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>5</v>
+      </c>
+      <c r="D311" t="s">
+        <v>20</v>
+      </c>
+      <c r="E311" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312">
+        <v>1</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>15</v>
+      </c>
+      <c r="D312" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
